--- a/conf-core/src/test/resources/dataloader/duplicate-field-failure-test.xlsx
+++ b/conf-core/src/test/resources/dataloader/duplicate-field-failure-test.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\dataloader-tests\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="60" windowWidth="18060" windowHeight="8580"/>
   </bookViews>
@@ -102,9 +107,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -114,6 +118,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -162,7 +169,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -197,7 +204,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -408,9 +415,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -465,7 +470,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>11</v>
       </c>
       <c r="B4" t="s">

--- a/conf-core/src/test/resources/dataloader/duplicate-field-failure-test.xlsx
+++ b/conf-core/src/test/resources/dataloader/duplicate-field-failure-test.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>HEADER</t>
   </si>
@@ -32,9 +32,6 @@
     <t>DESCRIPTION</t>
   </si>
   <si>
-    <t>ASSOCIATION</t>
-  </si>
-  <si>
     <t>UNIT</t>
   </si>
   <si>
@@ -47,9 +44,6 @@
     <t>description</t>
   </si>
   <si>
-    <t>association</t>
-  </si>
-  <si>
     <t>units</t>
   </si>
   <si>
@@ -63,9 +57,6 @@
   </si>
   <si>
     <t>Accumulated Center Position</t>
-  </si>
-  <si>
-    <t>SLOT</t>
   </si>
   <si>
     <t>meter</t>
@@ -413,20 +404,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="43.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -445,51 +438,42 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
         <v>5</v>
       </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="G2" t="s">
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
